--- a/data_year/zb/科技/高技术产业生产经营情况/高技术产业总产值.xlsx
+++ b/data_year/zb/科技/高技术产业生产经营情况/高技术产业总产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,288 +538,134 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>26511312.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>44388658.6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14145776.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59515356.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>11784449.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>56173108.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>117413083.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>44528141.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5772921.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12080201.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>108941389.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>359297648.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>88262766.40000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>198224600.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>84472591.09999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>101232655.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15981049.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>95911918.59999999</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1734733.9</v>
+      </c>
       <c r="U2" t="n">
-        <v>104114700</v>
+        <v>747089490.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>35438025.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54995108.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17280684.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>72437677.40000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13847105.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>68842214.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>149419874</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53779939.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6574928.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16037049.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>121170025.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>435594944.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>115489605.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>211351751.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>86287162.7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>116074374.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>19129748.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>119126613.7</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2173147.2</v>
+      </c>
       <c r="U3" t="n">
-        <v>343671086</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>570873800</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>20572675</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34208333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12436517</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48905770</v>
-      </c>
-      <c r="F5" t="n">
-        <v>9734778</v>
-      </c>
-      <c r="G5" t="n">
-        <v>43943112</v>
-      </c>
-      <c r="H5" t="n">
-        <v>94433032</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39184498</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4246602</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9806632</v>
-      </c>
-      <c r="L5" t="n">
-        <v>82591400</v>
-      </c>
-      <c r="M5" t="n">
-        <v>289471244</v>
-      </c>
-      <c r="N5" t="n">
-        <v>64470993</v>
-      </c>
-      <c r="O5" t="n">
-        <v>162927358</v>
-      </c>
-      <c r="P5" t="n">
-        <v>66552168</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>89602913</v>
-      </c>
-      <c r="R5" t="n">
-        <v>13530103</v>
-      </c>
-      <c r="S5" t="n">
-        <v>85312534</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1228700</v>
-      </c>
-      <c r="U5" t="n">
-        <v>604304849</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>26511312.2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>44388658.6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14145776.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>59515356.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11784449.9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>56173108.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>117413083.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>44528141.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5772921.7</v>
-      </c>
-      <c r="K6" t="n">
-        <v>12080201.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>108941389.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>359297648.3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>88262766.40000001</v>
-      </c>
-      <c r="O6" t="n">
-        <v>198224600.4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>84472591.09999999</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>101232655.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>15981049.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>95911918.59999999</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1734733.9</v>
-      </c>
-      <c r="U6" t="n">
-        <v>747089490.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>35438025.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>54995108.7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>17280684.4</v>
-      </c>
-      <c r="E7" t="n">
-        <v>72437677.40000001</v>
-      </c>
-      <c r="F7" t="n">
-        <v>13847105.5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>68842214.2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>149419874</v>
-      </c>
-      <c r="I7" t="n">
-        <v>53779939.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6574928.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16037049.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>121170025.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>435594944.2</v>
-      </c>
-      <c r="N7" t="n">
-        <v>115489605.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>211351751.3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>86287162.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>116074374.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>19129748.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>119126613.7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2173147.2</v>
-      </c>
-      <c r="U7" t="n">
         <v>884338532.1</v>
       </c>
     </row>
